--- a/DimoPdfToExcelSln/DimoPdfToExcelWeb/wwwroot/Files/I-O Distribution Key.xlsx
+++ b/DimoPdfToExcelSln/DimoPdfToExcelWeb/wwwroot/Files/I-O Distribution Key.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_project X\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yordan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Hungarian BS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="220">
   <si>
     <t>G. Accrued &amp; Deffered Expenses</t>
   </si>
@@ -679,6 +679,12 @@
   </si>
   <si>
     <t>047. D. Adózott eredmény</t>
+  </si>
+  <si>
+    <t>Goes to row  number:</t>
+  </si>
+  <si>
+    <t>Goes to row number:</t>
   </si>
 </sst>
 </file>
@@ -776,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -787,10 +793,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1083,23 +1087,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.7109375" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="C1" s="7" t="s">
-        <v>32</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1107,83 +1114,94 @@
         <v>23</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>89</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>89</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>89</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>89</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>89</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1191,69 +1209,82 @@
         <v>40</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>47</v>
+      </c>
+      <c r="C15">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>47</v>
+      </c>
+      <c r="C16">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>52</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>52</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>47</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1261,14 +1292,12 @@
         <v>41</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1276,8 +1305,7 @@
       <c r="A22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1285,8 +1313,7 @@
       <c r="A23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1294,8 +1321,7 @@
       <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1303,8 +1329,7 @@
       <c r="A25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1312,8 +1337,7 @@
       <c r="A26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1321,8 +1345,7 @@
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1330,8 +1353,7 @@
       <c r="A28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1339,8 +1361,7 @@
       <c r="A29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1348,8 +1369,7 @@
       <c r="A30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1358,703 +1378,620 @@
         <v>65</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="4"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="4"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="4"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="4"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B110" s="5"/>
-      <c r="C110" s="9" t="s">
+      <c r="B110" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B111" s="5"/>
-      <c r="C111" s="9" t="s">
+      <c r="B111" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="9" t="s">
+      <c r="B112" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2066,31 +2003,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2098,8 +2037,7 @@
       <c r="A4" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2108,14 +2046,12 @@
         <v>174</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2123,8 +2059,7 @@
       <c r="A7" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2133,14 +2068,12 @@
         <v>177</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2148,15 +2081,13 @@
       <c r="A10" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2164,8 +2095,7 @@
       <c r="A12" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2173,8 +2103,7 @@
       <c r="A13" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2182,8 +2111,7 @@
       <c r="A14" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2191,8 +2119,7 @@
       <c r="A15" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2201,282 +2128,248 @@
         <v>185</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="15" t="s">
+      <c r="B32" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>205</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DimoPdfToExcelSln/DimoPdfToExcelWeb/wwwroot/Files/I-O Distribution Key.xlsx
+++ b/DimoPdfToExcelSln/DimoPdfToExcelWeb/wwwroot/Files/I-O Distribution Key.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yordan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\corewebtest\DimoPdfToExcelSln\DimoPdfToExcelWeb\wwwroot\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1087,15 +1087,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.28515625" customWidth="1"/>
+    <col min="1" max="1" width="49.5703125" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1300,6 +1300,9 @@
       <c r="B21" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -1308,6 +1311,9 @@
       <c r="B22" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="C22">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1316,6 +1322,9 @@
       <c r="B23" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1324,6 +1333,9 @@
       <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -1332,6 +1344,9 @@
       <c r="B25" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -1340,6 +1355,9 @@
       <c r="B26" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="C26">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -1348,6 +1366,9 @@
       <c r="B27" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -1356,6 +1377,9 @@
       <c r="B28" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="C28">
+        <v>22</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -1364,6 +1388,9 @@
       <c r="B29" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -1372,6 +1399,9 @@
       <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="C30">
+        <v>22</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1385,606 +1415,792 @@
       </c>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B67" s="4"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B76" s="6"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B80" s="2"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B86" s="2"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B96" s="2"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B98" s="4"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B109" s="2"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>0</v>
+      </c>
+      <c r="C112">
+        <v>89</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">

--- a/DimoPdfToExcelSln/DimoPdfToExcelWeb/wwwroot/Files/I-O Distribution Key.xlsx
+++ b/DimoPdfToExcelSln/DimoPdfToExcelWeb/wwwroot/Files/I-O Distribution Key.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hungarian BS" sheetId="1" r:id="rId1"/>
@@ -1087,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
@@ -2219,15 +2219,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2248,6 +2248,9 @@
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2256,6 +2259,9 @@
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2270,6 +2276,9 @@
       <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -2278,6 +2287,9 @@
       <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -2292,6 +2304,9 @@
       <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -2306,6 +2321,9 @@
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -2314,6 +2332,9 @@
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="C12">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -2322,6 +2343,9 @@
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C13">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -2330,6 +2354,9 @@
       <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -2338,6 +2365,9 @@
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="C15">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -2345,240 +2375,306 @@
       </c>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>187</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>188</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>205</v>
       </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>216</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>2</v>
+      </c>
+      <c r="C48">
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
